--- a/docs/mcode-r4/obf-DiagnosticReport.xlsx
+++ b/docs/mcode-r4/obf-DiagnosticReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="294">
   <si>
     <t>Path</t>
   </si>
@@ -138,7 +138,7 @@
   </si>
   <si>
     <t>Report
-TestResultResultsLabsLaboratory</t>
+TestResultResultsLabsLaboratoryImaging ReportRadiology Report</t>
   </si>
   <si>
     <t>0</t>
@@ -153,7 +153,7 @@
     <t>obf-DiagnosticReport</t>
   </si>
   <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+    <t>The findings and interpretation of diagnostic tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
@@ -345,7 +345,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -393,7 +393,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationRequest)
 </t>
   </si>
   <si>
@@ -433,7 +433,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -452,7 +452,7 @@
   </si>
   <si>
     <t>Department
-Sub-departmentServiceDiscipline</t>
+Sub-departmentServiceDisciplineservicediscipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -468,13 +468,10 @@
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -493,13 +490,13 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
+    <t>US Core Report Code</t>
+  </si>
+  <si>
+    <t>The test, panel, report, or note that was ordered.</t>
+  </si>
+  <si>
+    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/report-codes</t>
@@ -524,14 +521,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>The subject of the report - usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>SHALL know the subject context.</t>
@@ -556,7 +553,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Encounter)
 </t>
   </si>
   <si>
@@ -595,10 +592,10 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+    <t>Time of the report or note</t>
+  </si>
+  <si>
+    <t>This is the Datetime or Period when the report or note was written.</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
@@ -658,7 +655,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -708,7 +705,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -734,14 +731,14 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>[Observations](observation.html)  that are part of this diagnostic report.</t>
+    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
   </si>
   <si>
     <t>Observations can contain observations.</t>
@@ -868,7 +865,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media)
+    <t xml:space="preserve">Reference(Media)
 </t>
   </si>
   <si>
@@ -910,6 +907,9 @@
   </si>
   <si>
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1122,7 +1122,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -2483,7 +2483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>128</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>53</v>
@@ -2545,9 +2545,7 @@
       <c r="W13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
         <v>133</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>138</v>
       </c>
@@ -2604,13 +2602,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>43</v>
@@ -2656,11 +2654,9 @@
       <c r="W14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -2696,22 +2692,22 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AM14" t="s" s="2">
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>149</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2721,7 +2717,7 @@
         <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>43</v>
@@ -2733,12 +2729,14 @@
         <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>43</v>
@@ -2763,14 +2761,12 @@
         <v>43</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>43</v>
       </c>
@@ -2787,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>52</v>
@@ -2802,35 +2798,35 @@
         <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM15" t="s" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>159</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>43</v>
@@ -2839,17 +2835,17 @@
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>43</v>
@@ -2898,7 +2894,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2913,25 +2909,25 @@
         <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AM16" t="s" s="2">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>169</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2941,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -2950,19 +2946,19 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3011,7 +3007,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3026,35 +3022,35 @@
         <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM17" t="s" s="2">
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>180</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>43</v>
@@ -3063,19 +3059,19 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3124,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3139,25 +3135,25 @@
         <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM18" t="s" s="2">
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>191</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3167,7 +3163,7 @@
         <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>43</v>
@@ -3176,19 +3172,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3237,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3255,22 +3251,22 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM19" t="s" s="2">
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>201</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3280,7 +3276,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
@@ -3289,19 +3285,19 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3350,7 +3346,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3365,25 +3361,25 @@
         <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3402,19 +3398,19 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3463,7 +3459,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3478,21 +3474,21 @@
         <v>43</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3515,19 +3511,19 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3576,7 +3572,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3594,10 +3590,10 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3605,11 +3601,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3628,19 +3624,19 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -3689,7 +3685,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3707,10 +3703,10 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3718,7 +3714,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3741,16 +3737,16 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3800,7 +3796,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3821,19 +3817,19 @@
         <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3843,7 +3839,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -3852,17 +3848,17 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -3911,7 +3907,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3923,16 +3919,16 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -3940,7 +3936,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3963,13 +3959,13 @@
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4020,7 +4016,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4041,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4049,7 +4045,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4078,7 +4074,7 @@
         <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>100</v>
@@ -4131,7 +4127,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4152,7 +4148,7 @@
         <v>43</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4160,11 +4156,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4186,10 +4182,10 @@
         <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>100</v>
@@ -4244,7 +4240,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4296,19 +4292,19 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4357,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4378,7 +4374,7 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4386,7 +4382,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4409,13 +4405,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4466,7 +4462,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>52</v>
@@ -4487,7 +4483,7 @@
         <v>43</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4495,11 +4491,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4518,17 +4514,17 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -4577,7 +4573,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4595,10 +4591,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4632,10 +4628,10 @@
         <v>140</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4662,7 +4658,7 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>284</v>
@@ -4686,7 +4682,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4704,7 +4700,7 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>286</v>
@@ -4713,7 +4709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>287</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
@@ -4817,7 +4813,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>293</v>

--- a/docs/mcode-r4/obf-DiagnosticReport.xlsx
+++ b/docs/mcode-r4/obf-DiagnosticReport.xlsx
@@ -393,7 +393,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|MedicationRequest)
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
